--- a/statistics/HistoricalDistanceData/historical_distance/Q60519448-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519448-en.xlsx
@@ -31,100 +31,100 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (larger states)</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Indiana: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
+    <t>Election Results</t>
+  </si>
+  <si>
+    <t>Karen Tallian Attorney General Poll</t>
+  </si>
+  <si>
     <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
-    <t>Indiana: Election Tools, Deadlines, Dates, Rules, and Links</t>
+    <t>Indiana Election Results</t>
+  </si>
+  <si>
+    <t>Voting &amp; Elections Toolkits</t>
+  </si>
+  <si>
+    <t>2020 Election Forecast</t>
   </si>
   <si>
     <t>Tallian best positioned Democrat to win Indiana attorney general race, poll finds</t>
   </si>
   <si>
-    <t>Polls 2020-11-02 (larger states)</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
-    <t>2020 Election Forecast</t>
-  </si>
-  <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Indiana Election Results</t>
-  </si>
-  <si>
-    <t>Karen Tallian Attorney General Poll</t>
-  </si>
-  <si>
-    <t>Election Results</t>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-05-28T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-06T13:13:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
+    <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
     <t>2020-05-28T17:30:00UTC</t>
   </si>
   <si>
-    <t>2020-08-12T06:30:00UTC</t>
-  </si>
-  <si>
-    <t>2020-05-28T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/indiana/</t>
+  </si>
+  <si>
+    <t>https://www.in.gov/sos/elections/2400.htm</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/IndianaBarrister/karen-tallian-attorney-general-poll</t>
+  </si>
+  <si>
     <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
-    <t>https://www.vote.org/state/indiana/</t>
+    <t>https://enr.indianavoters.in.gov/site/index.html</t>
+  </si>
+  <si>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
+  </si>
+  <si>
+    <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
     <t>https://www.nwitimes.com/news/local/govt-and-politics/elections/tallian-best-positioned-democrat-to-win-indiana-attorney-general-race-poll-finds/article_3208e96e-5678-584c-a81d-720ab4a22149.html</t>
   </si>
   <si>
-    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
-    <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://enr.indianavoters.in.gov/site/index.html</t>
-  </si>
-  <si>
-    <t>https://www.slideshare.net/IndianaBarrister/karen-tallian-attorney-general-poll</t>
-  </si>
-  <si>
-    <t>https://www.in.gov/sos/elections/2400.htm</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -727,7 +727,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
